--- a/src/assets/file/dssv.xlsx
+++ b/src/assets/file/dssv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Nunttse62525\dormitory-web\src\assets\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54085B4E-72F0-4CCA-98F1-BCFED8505A6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992F7E28-8E3B-4678-873D-3BAFE1EA5A52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D21A1D15-34C4-46F6-8E54-3BC04DDE12BD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>STT</t>
   </si>
@@ -63,16 +63,69 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Nam</t>
+  </si>
+  <si>
+    <t>SE62525</t>
+  </si>
+  <si>
+    <t>HCM</t>
+  </si>
+  <si>
+    <t>namnttse62525@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn B</t>
+  </si>
+  <si>
+    <t>Lê Văn D</t>
+  </si>
+  <si>
+    <t>Hoàng Văn C</t>
+  </si>
+  <si>
+    <t>Huỳnh Văn B</t>
+  </si>
+  <si>
+    <t>SE62526</t>
+  </si>
+  <si>
+    <t>SE62527</t>
+  </si>
+  <si>
+    <t>SE62528</t>
+  </si>
+  <si>
+    <t>SE62529</t>
+  </si>
+  <si>
+    <t>SE62530</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,13 +148,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -414,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930429B5-41ED-4833-B1A9-A710EDF1C3FF}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -426,8 +483,10 @@
     <col min="4" max="4" width="10.36328125" customWidth="1"/>
     <col min="5" max="5" width="13.7265625" customWidth="1"/>
     <col min="6" max="6" width="19.90625" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" customWidth="1"/>
+    <col min="8" max="8" width="14.36328125" customWidth="1"/>
     <col min="9" max="9" width="12.90625" customWidth="1"/>
-    <col min="11" max="11" width="18.453125" customWidth="1"/>
+    <col min="11" max="11" width="24.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -465,7 +524,226 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1234567890</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2">
+        <v>35927</v>
+      </c>
+      <c r="H2">
+        <v>215432589</v>
+      </c>
+      <c r="I2">
+        <v>2016</v>
+      </c>
+      <c r="J2">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1234567890</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2">
+        <v>35928</v>
+      </c>
+      <c r="H3">
+        <v>215432589</v>
+      </c>
+      <c r="I3">
+        <v>2016</v>
+      </c>
+      <c r="J3">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1234567890</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2">
+        <v>35929</v>
+      </c>
+      <c r="H4">
+        <v>215432589</v>
+      </c>
+      <c r="I4">
+        <v>2016</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1234567890</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2">
+        <v>35930</v>
+      </c>
+      <c r="H5">
+        <v>215432589</v>
+      </c>
+      <c r="I5">
+        <v>2016</v>
+      </c>
+      <c r="J5">
+        <v>11</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1234567890</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2">
+        <v>35931</v>
+      </c>
+      <c r="H6">
+        <v>215432589</v>
+      </c>
+      <c r="I6">
+        <v>2016</v>
+      </c>
+      <c r="J6">
+        <v>11</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1234567890</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2">
+        <v>35932</v>
+      </c>
+      <c r="H7">
+        <v>215432589</v>
+      </c>
+      <c r="I7">
+        <v>2016</v>
+      </c>
+      <c r="J7">
+        <v>11</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{7CD7A53B-BC60-4456-ACEE-6A36E666C7BF}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{031B34B5-E422-43B9-BEBD-322BF121E593}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{47B34F5B-027D-4F66-A839-98198617388D}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{0A6F17F1-1B74-4E23-8270-F096150EBFC0}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{1C94FF1D-A31A-406D-9C55-1DBCA0497429}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{03E39690-CCBA-4A87-AB66-F72F23B5021E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/src/assets/file/dssv.xlsx
+++ b/src/assets/file/dssv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Nunttse62525\dormitory-web\src\assets\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992F7E28-8E3B-4678-873D-3BAFE1EA5A52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37BA144-6697-4A3B-A090-F89E932EF600}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D21A1D15-34C4-46F6-8E54-3BC04DDE12BD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>STT</t>
   </si>
@@ -83,15 +83,9 @@
     <t>Nguyễn Văn B</t>
   </si>
   <si>
-    <t>Lê Văn D</t>
-  </si>
-  <si>
     <t>Hoàng Văn C</t>
   </si>
   <si>
-    <t>Huỳnh Văn B</t>
-  </si>
-  <si>
     <t>SE62526</t>
   </si>
   <si>
@@ -105,16 +99,28 @@
   </si>
   <si>
     <t>SE62530</t>
+  </si>
+  <si>
+    <t>15/12/1998</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị B</t>
+  </si>
+  <si>
+    <t>Lê Thị D</t>
+  </si>
+  <si>
+    <t>05/12/1998</t>
+  </si>
+  <si>
+    <t>09/12/1998</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +132,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,7 +167,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -474,7 +486,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -543,8 +555,8 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2">
-        <v>35927</v>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="H2">
         <v>215432589</v>
@@ -564,13 +576,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1234567890</v>
@@ -578,14 +590,14 @@
       <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2">
-        <v>35928</v>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="H3">
         <v>215432589</v>
       </c>
       <c r="I3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="J3">
         <v>11</v>
@@ -599,10 +611,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -613,14 +625,14 @@
       <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2">
-        <v>35929</v>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="H4">
         <v>215432589</v>
       </c>
       <c r="I4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="J4">
         <v>11</v>
@@ -634,13 +646,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1234567890</v>
@@ -648,14 +660,14 @@
       <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2">
-        <v>35930</v>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="H5">
         <v>215432589</v>
       </c>
       <c r="I5">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="J5">
         <v>11</v>
@@ -672,7 +684,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -683,8 +695,8 @@
       <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="2">
-        <v>35931</v>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="H6">
         <v>215432589</v>
@@ -707,7 +719,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -718,14 +730,14 @@
       <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2">
-        <v>35932</v>
+      <c r="G7" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="H7">
         <v>215432589</v>
       </c>
       <c r="I7">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="J7">
         <v>11</v>
@@ -735,6 +747,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{7CD7A53B-BC60-4456-ACEE-6A36E666C7BF}"/>
     <hyperlink ref="K3" r:id="rId2" xr:uid="{031B34B5-E422-43B9-BEBD-322BF121E593}"/>

--- a/src/assets/file/dssv.xlsx
+++ b/src/assets/file/dssv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Nunttse62525\dormitory-web\src\assets\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37BA144-6697-4A3B-A090-F89E932EF600}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B299C5DB-3101-4944-9FBB-A46682BFD3B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D21A1D15-34C4-46F6-8E54-3BC04DDE12BD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>STT</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>09/12/1998</t>
+  </si>
+  <si>
+    <t>Số tháng muốn ở</t>
+  </si>
+  <si>
+    <t>Độ ưu tiên</t>
+  </si>
+  <si>
+    <t>Loại phòng</t>
   </si>
 </sst>
 </file>
@@ -483,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930429B5-41ED-4833-B1A9-A710EDF1C3FF}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -499,9 +508,11 @@
     <col min="8" max="8" width="14.36328125" customWidth="1"/>
     <col min="9" max="9" width="12.90625" customWidth="1"/>
     <col min="11" max="11" width="24.36328125" customWidth="1"/>
+    <col min="12" max="12" width="15.54296875" customWidth="1"/>
+    <col min="14" max="14" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,8 +546,17 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -570,8 +590,17 @@
       <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -605,8 +634,17 @@
       <c r="K3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -640,8 +678,17 @@
       <c r="K4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="L4">
+        <v>12</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -675,8 +722,17 @@
       <c r="K5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -710,8 +766,17 @@
       <c r="K6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -744,6 +809,15 @@
       </c>
       <c r="K7" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="L7">
+        <v>12</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/file/dssv.xlsx
+++ b/src/assets/file/dssv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Nunttse62525\dormitory-web\src\assets\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B299C5DB-3101-4944-9FBB-A46682BFD3B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4632E1-FCFE-4889-AB96-403520783A5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D21A1D15-34C4-46F6-8E54-3BC04DDE12BD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>STT</t>
   </si>
@@ -71,6 +71,9 @@
     <t>SE62525</t>
   </si>
   <si>
+    <t>Nam</t>
+  </si>
+  <si>
     <t>HCM</t>
   </si>
   <si>
@@ -123,6 +126,9 @@
   </si>
   <si>
     <t>Loại phòng</t>
+  </si>
+  <si>
+    <t>Nữ</t>
   </si>
 </sst>
 </file>
@@ -494,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930429B5-41ED-4833-B1A9-A710EDF1C3FF}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -509,6 +515,7 @@
     <col min="9" max="9" width="12.90625" customWidth="1"/>
     <col min="11" max="11" width="24.36328125" customWidth="1"/>
     <col min="12" max="12" width="15.54296875" customWidth="1"/>
+    <col min="13" max="13" width="12.1796875" customWidth="1"/>
     <col min="14" max="14" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -547,13 +554,13 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -561,22 +568,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="b">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>13</v>
       </c>
       <c r="E2">
         <v>1234567890</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>215432589</v>
@@ -588,7 +595,7 @@
         <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2">
         <v>4</v>
@@ -605,22 +612,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
       </c>
       <c r="E3">
         <v>1234567890</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>215432589</v>
@@ -632,7 +639,7 @@
         <v>11</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L3">
         <v>8</v>
@@ -649,22 +656,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
       </c>
       <c r="E4">
         <v>1234567890</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>215432589</v>
@@ -676,7 +683,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4">
         <v>12</v>
@@ -693,22 +700,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
       </c>
       <c r="E5">
         <v>1234567890</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>215432589</v>
@@ -720,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L5">
         <v>4</v>
@@ -737,22 +744,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
       </c>
       <c r="E6">
         <v>1234567890</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>215432589</v>
@@ -764,7 +771,7 @@
         <v>11</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L6">
         <v>8</v>
@@ -784,19 +791,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
       </c>
       <c r="E7">
         <v>1234567890</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7">
         <v>215432589</v>
@@ -808,7 +815,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L7">
         <v>12</v>
